--- a/po_analysis_by_asin/B0C5B9M9JY_po_data.xlsx
+++ b/po_analysis_by_asin/B0C5B9M9JY_po_data.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,137 +452,297 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45299</v>
+        <v>45067.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>150</v>
+        <v>210</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45306</v>
+        <v>45081.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>30</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45313</v>
+        <v>45088.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>30</v>
+        <v>170</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45327</v>
+        <v>45095.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>1530</v>
+        <v>230</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45334</v>
+        <v>45102.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>120</v>
+        <v>270</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45460</v>
+        <v>45109.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45474</v>
+        <v>45116.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>20</v>
+        <v>360</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45481</v>
+        <v>45123.99999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>80</v>
+        <v>210</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45495</v>
+        <v>45130.99999999999</v>
       </c>
       <c r="B10" t="n">
-        <v>20</v>
+        <v>290</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45516</v>
+        <v>45137.99999999999</v>
       </c>
       <c r="B11" t="n">
-        <v>40</v>
+        <v>380</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45523</v>
+        <v>45144.99999999999</v>
       </c>
       <c r="B12" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45530</v>
+        <v>45151.99999999999</v>
       </c>
       <c r="B13" t="n">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45544</v>
+        <v>45165.99999999999</v>
       </c>
       <c r="B14" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45551</v>
+        <v>45179.99999999999</v>
       </c>
       <c r="B15" t="n">
-        <v>60</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45558</v>
+        <v>45186.99999999999</v>
       </c>
       <c r="B16" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45572</v>
+        <v>45200.99999999999</v>
       </c>
       <c r="B17" t="n">
-        <v>140</v>
+        <v>490</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45593</v>
+        <v>45207.99999999999</v>
       </c>
       <c r="B18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45242.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45249.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45277.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45305.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45312.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45319.99999999999</v>
+      </c>
+      <c r="B24" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45333.99999999999</v>
+      </c>
+      <c r="B25" t="n">
+        <v>1530</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45340.99999999999</v>
+      </c>
+      <c r="B26" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45466.99999999999</v>
+      </c>
+      <c r="B27" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45480.99999999999</v>
+      </c>
+      <c r="B28" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45487.99999999999</v>
+      </c>
+      <c r="B29" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45501.99999999999</v>
+      </c>
+      <c r="B30" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45522.99999999999</v>
+      </c>
+      <c r="B31" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45529.99999999999</v>
+      </c>
+      <c r="B32" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45536.99999999999</v>
+      </c>
+      <c r="B33" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45550.99999999999</v>
+      </c>
+      <c r="B34" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45557.99999999999</v>
+      </c>
+      <c r="B35" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45564.99999999999</v>
+      </c>
+      <c r="B36" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45578.99999999999</v>
+      </c>
+      <c r="B37" t="n">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45599.99999999999</v>
+      </c>
+      <c r="B38" t="n">
         <v>80</v>
       </c>
     </row>
@@ -597,7 +757,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -619,57 +779,121 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45292</v>
+        <v>45077.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>210</v>
+        <v>360</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45323</v>
+        <v>45107.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>1650</v>
+        <v>730</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45444</v>
+        <v>45138.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>20</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45474</v>
+        <v>45169.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45505</v>
+        <v>45199.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>80</v>
+        <v>540</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45536</v>
+        <v>45230.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>180</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45566</v>
+        <v>45260.99999999999</v>
       </c>
       <c r="B8" t="n">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45291.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45322.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45351.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45473.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45504.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45535.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45565.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45596.99999999999</v>
+      </c>
+      <c r="B16" t="n">
         <v>220</v>
       </c>
     </row>

--- a/po_analysis_by_asin/B0C5B9M9JY_po_data.xlsx
+++ b/po_analysis_by_asin/B0C5B9M9JY_po_data.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B38"/>
+  <dimension ref="A1:B37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -519,36 +519,36 @@
         <v>45130.99999999999</v>
       </c>
       <c r="B10" t="n">
-        <v>290</v>
+        <v>220</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45137.99999999999</v>
+        <v>45144.99999999999</v>
       </c>
       <c r="B11" t="n">
-        <v>380</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45144.99999999999</v>
+        <v>45151.99999999999</v>
       </c>
       <c r="B12" t="n">
-        <v>10</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45151.99999999999</v>
+        <v>45165.99999999999</v>
       </c>
       <c r="B13" t="n">
-        <v>60</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45165.99999999999</v>
+        <v>45179.99999999999</v>
       </c>
       <c r="B14" t="n">
         <v>10</v>
@@ -556,71 +556,71 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45179.99999999999</v>
+        <v>45186.99999999999</v>
       </c>
       <c r="B15" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45186.99999999999</v>
+        <v>45200.99999999999</v>
       </c>
       <c r="B16" t="n">
-        <v>40</v>
+        <v>490</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45200.99999999999</v>
+        <v>45207.99999999999</v>
       </c>
       <c r="B17" t="n">
-        <v>490</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45207.99999999999</v>
+        <v>45242.99999999999</v>
       </c>
       <c r="B18" t="n">
-        <v>10</v>
+        <v>250</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45242.99999999999</v>
+        <v>45249.99999999999</v>
       </c>
       <c r="B19" t="n">
-        <v>250</v>
+        <v>630</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45249.99999999999</v>
+        <v>45277.99999999999</v>
       </c>
       <c r="B20" t="n">
-        <v>630</v>
+        <v>280</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45277.99999999999</v>
+        <v>45305.99999999999</v>
       </c>
       <c r="B21" t="n">
-        <v>280</v>
+        <v>150</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45305.99999999999</v>
+        <v>45312.99999999999</v>
       </c>
       <c r="B22" t="n">
-        <v>150</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45312.99999999999</v>
+        <v>45319.99999999999</v>
       </c>
       <c r="B23" t="n">
         <v>30</v>
@@ -628,31 +628,31 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45319.99999999999</v>
+        <v>45333.99999999999</v>
       </c>
       <c r="B24" t="n">
-        <v>30</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45333.99999999999</v>
+        <v>45340.99999999999</v>
       </c>
       <c r="B25" t="n">
-        <v>1530</v>
+        <v>120</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45340.99999999999</v>
+        <v>45466.99999999999</v>
       </c>
       <c r="B26" t="n">
-        <v>120</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45466.99999999999</v>
+        <v>45480.99999999999</v>
       </c>
       <c r="B27" t="n">
         <v>20</v>
@@ -660,39 +660,39 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45480.99999999999</v>
+        <v>45487.99999999999</v>
       </c>
       <c r="B28" t="n">
-        <v>20</v>
+        <v>80</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45487.99999999999</v>
+        <v>45501.99999999999</v>
       </c>
       <c r="B29" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45501.99999999999</v>
+        <v>45522.99999999999</v>
       </c>
       <c r="B30" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45522.99999999999</v>
+        <v>45529.99999999999</v>
       </c>
       <c r="B31" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45529.99999999999</v>
+        <v>45536.99999999999</v>
       </c>
       <c r="B32" t="n">
         <v>20</v>
@@ -700,7 +700,7 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45536.99999999999</v>
+        <v>45550.99999999999</v>
       </c>
       <c r="B33" t="n">
         <v>20</v>
@@ -708,41 +708,33 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45550.99999999999</v>
+        <v>45557.99999999999</v>
       </c>
       <c r="B34" t="n">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45557.99999999999</v>
+        <v>45564.99999999999</v>
       </c>
       <c r="B35" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45564.99999999999</v>
+        <v>45578.99999999999</v>
       </c>
       <c r="B36" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45578.99999999999</v>
+        <v>45599.99999999999</v>
       </c>
       <c r="B37" t="n">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="2" t="n">
-        <v>45599.99999999999</v>
-      </c>
-      <c r="B38" t="n">
         <v>80</v>
       </c>
     </row>
@@ -798,7 +790,7 @@
         <v>45138.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>1240</v>
+        <v>790</v>
       </c>
     </row>
     <row r="5">

--- a/po_analysis_by_asin/B0C5B9M9JY_po_data.xlsx
+++ b/po_analysis_by_asin/B0C5B9M9JY_po_data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Quantity" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Trend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Forecast" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +447,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Weekly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -765,7 +766,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Monthly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -887,6 +888,663 @@
       </c>
       <c r="B16" t="n">
         <v>220</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D45"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Forecast</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_lower</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>45067.99999999999</v>
+      </c>
+      <c r="B2" t="n">
+        <v>232</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-88.95374758580186</v>
+      </c>
+      <c r="D2" t="n">
+        <v>586.3986332774882</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45081.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>229</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-121.2431143027604</v>
+      </c>
+      <c r="D3" t="n">
+        <v>572.2215619308997</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45088.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>227</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-115.6440075829759</v>
+      </c>
+      <c r="D4" t="n">
+        <v>556.2279496782595</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45095.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>225</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-89.65735796664218</v>
+      </c>
+      <c r="D5" t="n">
+        <v>580.7689286694443</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45102.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>223</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-135.968968837059</v>
+      </c>
+      <c r="D6" t="n">
+        <v>535.5951357787567</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45109.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>222</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-140.8198938272831</v>
+      </c>
+      <c r="D7" t="n">
+        <v>564.0822585173991</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45116.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>220</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-117.6203288753938</v>
+      </c>
+      <c r="D8" t="n">
+        <v>559.4574266713938</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45123.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>218</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-120.6546781992352</v>
+      </c>
+      <c r="D9" t="n">
+        <v>547.9232538822794</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45130.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>216</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-113.2993014735265</v>
+      </c>
+      <c r="D10" t="n">
+        <v>564.5956327519781</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45144.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>212</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-132.0451004741186</v>
+      </c>
+      <c r="D11" t="n">
+        <v>544.3509718307134</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45151.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>211</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-144.472661488273</v>
+      </c>
+      <c r="D12" t="n">
+        <v>547.7369280398793</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45165.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>207</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-106.9525462149501</v>
+      </c>
+      <c r="D13" t="n">
+        <v>555.340666880013</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45179.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>203</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-115.7692149484944</v>
+      </c>
+      <c r="D14" t="n">
+        <v>536.5810986093268</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45186.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>202</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-121.1468490585957</v>
+      </c>
+      <c r="D15" t="n">
+        <v>545.8408219429367</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45200.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>198</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-119.1746683686142</v>
+      </c>
+      <c r="D16" t="n">
+        <v>545.4356273500005</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45207.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>196</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-151.8343082641204</v>
+      </c>
+      <c r="D17" t="n">
+        <v>542.1021462248227</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45242.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>187</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-143.8057940983222</v>
+      </c>
+      <c r="D18" t="n">
+        <v>524.4749421940367</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45249.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>185</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-156.2175152864835</v>
+      </c>
+      <c r="D19" t="n">
+        <v>514.3258888971727</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45277.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>178</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-169.7354629290046</v>
+      </c>
+      <c r="D20" t="n">
+        <v>495.7109267495015</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45305.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>171</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-170.909688784987</v>
+      </c>
+      <c r="D21" t="n">
+        <v>503.3438918974319</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45312.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>169</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-152.5292379729926</v>
+      </c>
+      <c r="D22" t="n">
+        <v>504.7238684154186</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45319.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>167</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-162.6231851905745</v>
+      </c>
+      <c r="D23" t="n">
+        <v>503.6828206650554</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45333.99999999999</v>
+      </c>
+      <c r="B24" t="n">
+        <v>163</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-191.2217008059024</v>
+      </c>
+      <c r="D24" t="n">
+        <v>497.4488993907822</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45340.99999999999</v>
+      </c>
+      <c r="B25" t="n">
+        <v>161</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-172.6220497694241</v>
+      </c>
+      <c r="D25" t="n">
+        <v>492.6341003416475</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45466.99999999999</v>
+      </c>
+      <c r="B26" t="n">
+        <v>129</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-198.3494707290961</v>
+      </c>
+      <c r="D26" t="n">
+        <v>471.2291136597877</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45480.99999999999</v>
+      </c>
+      <c r="B27" t="n">
+        <v>125</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-203.8556790421866</v>
+      </c>
+      <c r="D27" t="n">
+        <v>492.907496990975</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45487.99999999999</v>
+      </c>
+      <c r="B28" t="n">
+        <v>123</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-194.1942585671445</v>
+      </c>
+      <c r="D28" t="n">
+        <v>456.5910547270826</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45501.99999999999</v>
+      </c>
+      <c r="B29" t="n">
+        <v>119</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-250.5999209227412</v>
+      </c>
+      <c r="D29" t="n">
+        <v>448.4630977578096</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45522.99999999999</v>
+      </c>
+      <c r="B30" t="n">
+        <v>114</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-236.5504672935728</v>
+      </c>
+      <c r="D30" t="n">
+        <v>470.7995043904547</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45529.99999999999</v>
+      </c>
+      <c r="B31" t="n">
+        <v>112</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-224.9673293424748</v>
+      </c>
+      <c r="D31" t="n">
+        <v>469.7017998100837</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45536.99999999999</v>
+      </c>
+      <c r="B32" t="n">
+        <v>110</v>
+      </c>
+      <c r="C32" t="n">
+        <v>-233.8215146733762</v>
+      </c>
+      <c r="D32" t="n">
+        <v>442.2252375079244</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45550.99999999999</v>
+      </c>
+      <c r="B33" t="n">
+        <v>107</v>
+      </c>
+      <c r="C33" t="n">
+        <v>-245.7097018722992</v>
+      </c>
+      <c r="D33" t="n">
+        <v>435.0277587962874</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45557.99999999999</v>
+      </c>
+      <c r="B34" t="n">
+        <v>105</v>
+      </c>
+      <c r="C34" t="n">
+        <v>-218.8941271740536</v>
+      </c>
+      <c r="D34" t="n">
+        <v>425.2312488504497</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45564.99999999999</v>
+      </c>
+      <c r="B35" t="n">
+        <v>103</v>
+      </c>
+      <c r="C35" t="n">
+        <v>-245.8794554193183</v>
+      </c>
+      <c r="D35" t="n">
+        <v>416.310362106894</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45578.99999999999</v>
+      </c>
+      <c r="B36" t="n">
+        <v>99</v>
+      </c>
+      <c r="C36" t="n">
+        <v>-241.3867850299935</v>
+      </c>
+      <c r="D36" t="n">
+        <v>442.0035864291083</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45599.99999999999</v>
+      </c>
+      <c r="B37" t="n">
+        <v>94</v>
+      </c>
+      <c r="C37" t="n">
+        <v>-239.5442918078082</v>
+      </c>
+      <c r="D37" t="n">
+        <v>425.7101638092473</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45606.99999999999</v>
+      </c>
+      <c r="B38" t="n">
+        <v>92</v>
+      </c>
+      <c r="C38" t="n">
+        <v>-257.9191798329433</v>
+      </c>
+      <c r="D38" t="n">
+        <v>415.084038883354</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45613.99999999999</v>
+      </c>
+      <c r="B39" t="n">
+        <v>90</v>
+      </c>
+      <c r="C39" t="n">
+        <v>-251.3265184723479</v>
+      </c>
+      <c r="D39" t="n">
+        <v>416.6406902092184</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45620.99999999999</v>
+      </c>
+      <c r="B40" t="n">
+        <v>89</v>
+      </c>
+      <c r="C40" t="n">
+        <v>-266.151354314655</v>
+      </c>
+      <c r="D40" t="n">
+        <v>445.5920191557597</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45627.99999999999</v>
+      </c>
+      <c r="B41" t="n">
+        <v>87</v>
+      </c>
+      <c r="C41" t="n">
+        <v>-235.2738410456996</v>
+      </c>
+      <c r="D41" t="n">
+        <v>413.0288899739418</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>45634.99999999999</v>
+      </c>
+      <c r="B42" t="n">
+        <v>85</v>
+      </c>
+      <c r="C42" t="n">
+        <v>-282.0628476219604</v>
+      </c>
+      <c r="D42" t="n">
+        <v>422.2555410882775</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>45641.99999999999</v>
+      </c>
+      <c r="B43" t="n">
+        <v>83</v>
+      </c>
+      <c r="C43" t="n">
+        <v>-220.4844129237707</v>
+      </c>
+      <c r="D43" t="n">
+        <v>396.4469210384087</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>45648.99999999999</v>
+      </c>
+      <c r="B44" t="n">
+        <v>81</v>
+      </c>
+      <c r="C44" t="n">
+        <v>-268.4046648917768</v>
+      </c>
+      <c r="D44" t="n">
+        <v>397.0657187533897</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>45655.99999999999</v>
+      </c>
+      <c r="B45" t="n">
+        <v>79</v>
+      </c>
+      <c r="C45" t="n">
+        <v>-308.1331336268926</v>
+      </c>
+      <c r="D45" t="n">
+        <v>416.5245151797489</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B0C5B9M9JY_po_data.xlsx
+++ b/po_analysis_by_asin/B0C5B9M9JY_po_data.xlsx
@@ -901,7 +901,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D45"/>
+  <dimension ref="A1:B45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -920,16 +920,6 @@
           <t>PO_Forecast</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_lower</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_upper</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -938,12 +928,6 @@
       <c r="B2" t="n">
         <v>232</v>
       </c>
-      <c r="C2" t="n">
-        <v>-88.95374758580186</v>
-      </c>
-      <c r="D2" t="n">
-        <v>586.3986332774882</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -952,12 +936,6 @@
       <c r="B3" t="n">
         <v>229</v>
       </c>
-      <c r="C3" t="n">
-        <v>-121.2431143027604</v>
-      </c>
-      <c r="D3" t="n">
-        <v>572.2215619308997</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -966,12 +944,6 @@
       <c r="B4" t="n">
         <v>227</v>
       </c>
-      <c r="C4" t="n">
-        <v>-115.6440075829759</v>
-      </c>
-      <c r="D4" t="n">
-        <v>556.2279496782595</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -980,12 +952,6 @@
       <c r="B5" t="n">
         <v>225</v>
       </c>
-      <c r="C5" t="n">
-        <v>-89.65735796664218</v>
-      </c>
-      <c r="D5" t="n">
-        <v>580.7689286694443</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -994,12 +960,6 @@
       <c r="B6" t="n">
         <v>223</v>
       </c>
-      <c r="C6" t="n">
-        <v>-135.968968837059</v>
-      </c>
-      <c r="D6" t="n">
-        <v>535.5951357787567</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -1008,12 +968,6 @@
       <c r="B7" t="n">
         <v>222</v>
       </c>
-      <c r="C7" t="n">
-        <v>-140.8198938272831</v>
-      </c>
-      <c r="D7" t="n">
-        <v>564.0822585173991</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -1022,12 +976,6 @@
       <c r="B8" t="n">
         <v>220</v>
       </c>
-      <c r="C8" t="n">
-        <v>-117.6203288753938</v>
-      </c>
-      <c r="D8" t="n">
-        <v>559.4574266713938</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -1036,12 +984,6 @@
       <c r="B9" t="n">
         <v>218</v>
       </c>
-      <c r="C9" t="n">
-        <v>-120.6546781992352</v>
-      </c>
-      <c r="D9" t="n">
-        <v>547.9232538822794</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -1050,12 +992,6 @@
       <c r="B10" t="n">
         <v>216</v>
       </c>
-      <c r="C10" t="n">
-        <v>-113.2993014735265</v>
-      </c>
-      <c r="D10" t="n">
-        <v>564.5956327519781</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -1064,12 +1000,6 @@
       <c r="B11" t="n">
         <v>212</v>
       </c>
-      <c r="C11" t="n">
-        <v>-132.0451004741186</v>
-      </c>
-      <c r="D11" t="n">
-        <v>544.3509718307134</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -1078,12 +1008,6 @@
       <c r="B12" t="n">
         <v>211</v>
       </c>
-      <c r="C12" t="n">
-        <v>-144.472661488273</v>
-      </c>
-      <c r="D12" t="n">
-        <v>547.7369280398793</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -1092,12 +1016,6 @@
       <c r="B13" t="n">
         <v>207</v>
       </c>
-      <c r="C13" t="n">
-        <v>-106.9525462149501</v>
-      </c>
-      <c r="D13" t="n">
-        <v>555.340666880013</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -1106,12 +1024,6 @@
       <c r="B14" t="n">
         <v>203</v>
       </c>
-      <c r="C14" t="n">
-        <v>-115.7692149484944</v>
-      </c>
-      <c r="D14" t="n">
-        <v>536.5810986093268</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -1120,12 +1032,6 @@
       <c r="B15" t="n">
         <v>202</v>
       </c>
-      <c r="C15" t="n">
-        <v>-121.1468490585957</v>
-      </c>
-      <c r="D15" t="n">
-        <v>545.8408219429367</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -1134,12 +1040,6 @@
       <c r="B16" t="n">
         <v>198</v>
       </c>
-      <c r="C16" t="n">
-        <v>-119.1746683686142</v>
-      </c>
-      <c r="D16" t="n">
-        <v>545.4356273500005</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -1148,12 +1048,6 @@
       <c r="B17" t="n">
         <v>196</v>
       </c>
-      <c r="C17" t="n">
-        <v>-151.8343082641204</v>
-      </c>
-      <c r="D17" t="n">
-        <v>542.1021462248227</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1162,12 +1056,6 @@
       <c r="B18" t="n">
         <v>187</v>
       </c>
-      <c r="C18" t="n">
-        <v>-143.8057940983222</v>
-      </c>
-      <c r="D18" t="n">
-        <v>524.4749421940367</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1176,12 +1064,6 @@
       <c r="B19" t="n">
         <v>185</v>
       </c>
-      <c r="C19" t="n">
-        <v>-156.2175152864835</v>
-      </c>
-      <c r="D19" t="n">
-        <v>514.3258888971727</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1190,12 +1072,6 @@
       <c r="B20" t="n">
         <v>178</v>
       </c>
-      <c r="C20" t="n">
-        <v>-169.7354629290046</v>
-      </c>
-      <c r="D20" t="n">
-        <v>495.7109267495015</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1204,12 +1080,6 @@
       <c r="B21" t="n">
         <v>171</v>
       </c>
-      <c r="C21" t="n">
-        <v>-170.909688784987</v>
-      </c>
-      <c r="D21" t="n">
-        <v>503.3438918974319</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1218,12 +1088,6 @@
       <c r="B22" t="n">
         <v>169</v>
       </c>
-      <c r="C22" t="n">
-        <v>-152.5292379729926</v>
-      </c>
-      <c r="D22" t="n">
-        <v>504.7238684154186</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1232,12 +1096,6 @@
       <c r="B23" t="n">
         <v>167</v>
       </c>
-      <c r="C23" t="n">
-        <v>-162.6231851905745</v>
-      </c>
-      <c r="D23" t="n">
-        <v>503.6828206650554</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1246,12 +1104,6 @@
       <c r="B24" t="n">
         <v>163</v>
       </c>
-      <c r="C24" t="n">
-        <v>-191.2217008059024</v>
-      </c>
-      <c r="D24" t="n">
-        <v>497.4488993907822</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1260,12 +1112,6 @@
       <c r="B25" t="n">
         <v>161</v>
       </c>
-      <c r="C25" t="n">
-        <v>-172.6220497694241</v>
-      </c>
-      <c r="D25" t="n">
-        <v>492.6341003416475</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1274,12 +1120,6 @@
       <c r="B26" t="n">
         <v>129</v>
       </c>
-      <c r="C26" t="n">
-        <v>-198.3494707290961</v>
-      </c>
-      <c r="D26" t="n">
-        <v>471.2291136597877</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1288,12 +1128,6 @@
       <c r="B27" t="n">
         <v>125</v>
       </c>
-      <c r="C27" t="n">
-        <v>-203.8556790421866</v>
-      </c>
-      <c r="D27" t="n">
-        <v>492.907496990975</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1302,12 +1136,6 @@
       <c r="B28" t="n">
         <v>123</v>
       </c>
-      <c r="C28" t="n">
-        <v>-194.1942585671445</v>
-      </c>
-      <c r="D28" t="n">
-        <v>456.5910547270826</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -1316,12 +1144,6 @@
       <c r="B29" t="n">
         <v>119</v>
       </c>
-      <c r="C29" t="n">
-        <v>-250.5999209227412</v>
-      </c>
-      <c r="D29" t="n">
-        <v>448.4630977578096</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -1330,12 +1152,6 @@
       <c r="B30" t="n">
         <v>114</v>
       </c>
-      <c r="C30" t="n">
-        <v>-236.5504672935728</v>
-      </c>
-      <c r="D30" t="n">
-        <v>470.7995043904547</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -1344,12 +1160,6 @@
       <c r="B31" t="n">
         <v>112</v>
       </c>
-      <c r="C31" t="n">
-        <v>-224.9673293424748</v>
-      </c>
-      <c r="D31" t="n">
-        <v>469.7017998100837</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -1358,12 +1168,6 @@
       <c r="B32" t="n">
         <v>110</v>
       </c>
-      <c r="C32" t="n">
-        <v>-233.8215146733762</v>
-      </c>
-      <c r="D32" t="n">
-        <v>442.2252375079244</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
@@ -1372,12 +1176,6 @@
       <c r="B33" t="n">
         <v>107</v>
       </c>
-      <c r="C33" t="n">
-        <v>-245.7097018722992</v>
-      </c>
-      <c r="D33" t="n">
-        <v>435.0277587962874</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
@@ -1386,12 +1184,6 @@
       <c r="B34" t="n">
         <v>105</v>
       </c>
-      <c r="C34" t="n">
-        <v>-218.8941271740536</v>
-      </c>
-      <c r="D34" t="n">
-        <v>425.2312488504497</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
@@ -1400,12 +1192,6 @@
       <c r="B35" t="n">
         <v>103</v>
       </c>
-      <c r="C35" t="n">
-        <v>-245.8794554193183</v>
-      </c>
-      <c r="D35" t="n">
-        <v>416.310362106894</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
@@ -1414,12 +1200,6 @@
       <c r="B36" t="n">
         <v>99</v>
       </c>
-      <c r="C36" t="n">
-        <v>-241.3867850299935</v>
-      </c>
-      <c r="D36" t="n">
-        <v>442.0035864291083</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
@@ -1428,12 +1208,6 @@
       <c r="B37" t="n">
         <v>94</v>
       </c>
-      <c r="C37" t="n">
-        <v>-239.5442918078082</v>
-      </c>
-      <c r="D37" t="n">
-        <v>425.7101638092473</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
@@ -1442,12 +1216,6 @@
       <c r="B38" t="n">
         <v>92</v>
       </c>
-      <c r="C38" t="n">
-        <v>-257.9191798329433</v>
-      </c>
-      <c r="D38" t="n">
-        <v>415.084038883354</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
@@ -1456,12 +1224,6 @@
       <c r="B39" t="n">
         <v>90</v>
       </c>
-      <c r="C39" t="n">
-        <v>-251.3265184723479</v>
-      </c>
-      <c r="D39" t="n">
-        <v>416.6406902092184</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
@@ -1470,12 +1232,6 @@
       <c r="B40" t="n">
         <v>89</v>
       </c>
-      <c r="C40" t="n">
-        <v>-266.151354314655</v>
-      </c>
-      <c r="D40" t="n">
-        <v>445.5920191557597</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
@@ -1484,12 +1240,6 @@
       <c r="B41" t="n">
         <v>87</v>
       </c>
-      <c r="C41" t="n">
-        <v>-235.2738410456996</v>
-      </c>
-      <c r="D41" t="n">
-        <v>413.0288899739418</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
@@ -1498,12 +1248,6 @@
       <c r="B42" t="n">
         <v>85</v>
       </c>
-      <c r="C42" t="n">
-        <v>-282.0628476219604</v>
-      </c>
-      <c r="D42" t="n">
-        <v>422.2555410882775</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
@@ -1512,12 +1256,6 @@
       <c r="B43" t="n">
         <v>83</v>
       </c>
-      <c r="C43" t="n">
-        <v>-220.4844129237707</v>
-      </c>
-      <c r="D43" t="n">
-        <v>396.4469210384087</v>
-      </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
@@ -1526,12 +1264,6 @@
       <c r="B44" t="n">
         <v>81</v>
       </c>
-      <c r="C44" t="n">
-        <v>-268.4046648917768</v>
-      </c>
-      <c r="D44" t="n">
-        <v>397.0657187533897</v>
-      </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
@@ -1539,12 +1271,6 @@
       </c>
       <c r="B45" t="n">
         <v>79</v>
-      </c>
-      <c r="C45" t="n">
-        <v>-308.1331336268926</v>
-      </c>
-      <c r="D45" t="n">
-        <v>416.5245151797489</v>
       </c>
     </row>
   </sheetData>
